--- a/templates/pattern_auditory.xlsx
+++ b/templates/pattern_auditory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\ParseMIREA\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772CA205-3D1F-467A-9500-C0C44AECB6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF128F4A-6921-4CB1-B4EB-F22F496F998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,13 +142,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,53 +437,54 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>7</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>8</v>
       </c>
     </row>
